--- a/biology/Zoologie/Gylippus_shulowi/Gylippus_shulowi.xlsx
+++ b/biology/Zoologie/Gylippus_shulowi/Gylippus_shulowi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gylippus shulowi est une espèce de solifuges de la famille des Gylippidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Israël[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Israël.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Aharon Shulov[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Aharon Shulov.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Turk, 1948 : On recent additions to the collection of Solifuga belonging to the Hebrew University of Palestine. Annals and Magazine of Natural History, sér. 12, vol. 1, p. 263–273.</t>
         </is>
